--- a/Reportes/Execl Project 2.xlsx
+++ b/Reportes/Execl Project 2.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/7-ITESO/Microestructura y Sistemas de Trading/Reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED247ED-2EF7-6041-A9FC-0F2167DC7FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B173F2D-A28E-9B40-A171-169CFB3506A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17320" xr2:uid="{C67D5A9D-04D2-9643-AABF-8F83FF5B4C07}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" activeTab="5" xr2:uid="{C67D5A9D-04D2-9643-AABF-8F83FF5B4C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Train" sheetId="2" r:id="rId2"/>
+    <sheet name="Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Validation" sheetId="4" r:id="rId4"/>
+    <sheet name="Portfolio" sheetId="5" r:id="rId5"/>
+    <sheet name="Benchmark" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Unix</t>
   </si>
@@ -69,13 +74,109 @@
   </si>
   <si>
     <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Metric    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpe Ratio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sortino Ratio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calmar Ratio  </t>
+  </si>
+  <si>
+    <t>Max Drawdown</t>
+  </si>
+  <si>
+    <t>Annual Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpe Ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sortino Ratio   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max Drawdown     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calmar Ratio </t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Drawdown     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Drawdown    </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Final capital: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$1,549,163.60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Final capital:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$5,475,517.14</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +197,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,19 +228,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22E1AF2-0678-BF49-9F77-67CC08CC3359}">
   <dimension ref="B4:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -626,4 +788,467 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D582F8AB-B351-1647-80B7-2B6A3B9E0897}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.97393700000000005</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.2419</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.509747</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-0.1346</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.2281</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.29160000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.78989799999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.55810000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.15720000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="7">
+        <v>2022</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-0.12690000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6796EF-1C6B-1246-9496-74E8A3A85E23}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.3816059999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.2416299999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.27629999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.9339470000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25294FFB-38EC-9E40-ACAC-F8B6DF2C46A0}">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.185297</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.1414</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.882115</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.82E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.3702620000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF9358B-F3C5-FE42-88FA-78627327EE64}">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.2853950000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0673629999999998</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.27629999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.12620000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.6428579999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4.82E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ABEFC8-BF96-2244-8AA4-E4A2300D0A98}">
+  <dimension ref="B1:F8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.2853950000000001</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.297358</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0673629999999998</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.058373</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.6428579999999999</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.730278</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>